--- a/Find Bugs/Test Cases - Find Bugs .xlsx
+++ b/Find Bugs/Test Cases - Find Bugs .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Education\OTHERS\AcademyBugs - Testing\Find Bugs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Education\Software Testing\AcademyBugs - Manual Testing\Find Bugs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A0926F-2E9C-4ECE-8CE0-017412E3AB8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3A7FB6-AF7A-403E-BF4E-E0BA3BC023CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -250,9 +250,6 @@
 </t>
   </si>
   <si>
-    <t>To be in  the Find Bugs page</t>
-  </si>
-  <si>
     <t>1- Go To https://academybugs.com/find-bugs/
 2- Navigate To Store</t>
   </si>
@@ -556,6 +553,9 @@
   </si>
   <si>
     <t>Product's Div Should Contain Photo, Name, Normal Price or price before and after disscount And Add To Cart Button</t>
+  </si>
+  <si>
+    <t>Ensure the products exists on the Find Bugs page</t>
   </si>
 </sst>
 </file>
@@ -805,6 +805,33 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -837,33 +864,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1182,8 +1182,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:I5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1201,75 +1201,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="51" customHeight="1">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" ht="53.25" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="30" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9" ht="43.5" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:9" ht="36" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
     </row>
     <row r="5" spans="1:9" ht="51" customHeight="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="32">
+      <c r="B5" s="16"/>
+      <c r="C5" s="21">
         <v>45872</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
     </row>
     <row r="6" spans="1:9" ht="39.75" customHeight="1">
       <c r="A6" s="6" t="s">
@@ -1304,24 +1304,24 @@
       <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>119</v>
+      <c r="B7" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="32"/>
+      <c r="G7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="10" t="s">
+      <c r="H7" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>15</v>
@@ -1331,20 +1331,20 @@
       <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="21"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="24"/>
+        <v>40</v>
+      </c>
+      <c r="F8" s="33"/>
       <c r="G8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>59</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>15</v>
@@ -1354,22 +1354,22 @@
       <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>120</v>
+      <c r="B9" s="23" t="s">
+        <v>119</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="33"/>
+      <c r="G9" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="10" t="s">
+      <c r="H9" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>15</v>
@@ -1379,20 +1379,20 @@
       <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="33"/>
+      <c r="G10" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="10" t="s">
-        <v>116</v>
-      </c>
       <c r="H10" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>18</v>
@@ -1402,20 +1402,20 @@
       <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="21"/>
+        <v>117</v>
+      </c>
+      <c r="D11" s="30"/>
       <c r="E11" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="24"/>
+        <v>62</v>
+      </c>
+      <c r="F11" s="33"/>
       <c r="G11" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>18</v>
@@ -1425,22 +1425,22 @@
       <c r="A12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>121</v>
+      <c r="B12" s="23" t="s">
+        <v>120</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="21"/>
+        <v>45</v>
+      </c>
+      <c r="D12" s="30"/>
       <c r="E12" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="33"/>
+      <c r="G12" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="12" t="s">
+      <c r="H12" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="I12" s="13" t="s">
         <v>15</v>
@@ -1450,20 +1450,20 @@
       <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="16"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="10" t="s">
+      <c r="F13" s="33"/>
+      <c r="G13" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="12" t="s">
-        <v>69</v>
-      </c>
       <c r="H13" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>15</v>
@@ -1473,20 +1473,20 @@
       <c r="A14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="16"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="10" t="s">
+      <c r="F14" s="33"/>
+      <c r="G14" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="12" t="s">
-        <v>72</v>
-      </c>
       <c r="H14" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" s="13" t="s">
         <v>15</v>
@@ -1496,20 +1496,20 @@
       <c r="A15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="16"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="10" t="s">
+      <c r="F15" s="33"/>
+      <c r="G15" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="12" t="s">
+      <c r="H15" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>76</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>15</v>
@@ -1519,20 +1519,20 @@
       <c r="A16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="16"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="10" t="s">
+      <c r="F16" s="33"/>
+      <c r="G16" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="12" t="s">
+      <c r="H16" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>80</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>15</v>
@@ -1542,20 +1542,20 @@
       <c r="A17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="16"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="10" t="s">
+      <c r="F17" s="33"/>
+      <c r="G17" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="12" t="s">
+      <c r="H17" s="12" t="s">
         <v>83</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>84</v>
       </c>
       <c r="I17" s="13" t="s">
         <v>15</v>
@@ -1565,20 +1565,20 @@
       <c r="A18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="16"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="10" t="s">
+      <c r="F18" s="33"/>
+      <c r="G18" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="12" t="s">
+      <c r="H18" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>88</v>
       </c>
       <c r="I18" s="13" t="s">
         <v>15</v>
@@ -1588,20 +1588,20 @@
       <c r="A19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="16"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="10" t="s">
+      <c r="F19" s="33"/>
+      <c r="G19" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="12" t="s">
+      <c r="H19" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>92</v>
       </c>
       <c r="I19" s="13" t="s">
         <v>15</v>
@@ -1611,20 +1611,20 @@
       <c r="A20" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="10" t="s">
+      <c r="F20" s="33"/>
+      <c r="G20" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="12" t="s">
+      <c r="H20" s="12" t="s">
         <v>95</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>96</v>
       </c>
       <c r="I20" s="13" t="s">
         <v>15</v>
@@ -1634,22 +1634,22 @@
       <c r="A21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>122</v>
+      <c r="B21" s="23" t="s">
+        <v>121</v>
       </c>
       <c r="C21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="33"/>
+      <c r="G21" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="12" t="s">
+      <c r="H21" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="I21" s="13" t="s">
         <v>15</v>
@@ -1659,20 +1659,20 @@
       <c r="A22" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="15"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="33"/>
+      <c r="G22" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="12" t="s">
-        <v>55</v>
-      </c>
       <c r="H22" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I22" s="13" t="s">
         <v>15</v>
@@ -1682,22 +1682,22 @@
       <c r="A23" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>123</v>
+      <c r="B23" s="23" t="s">
+        <v>122</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="21"/>
+        <v>100</v>
+      </c>
+      <c r="D23" s="30"/>
       <c r="E23" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="24"/>
+        <v>40</v>
+      </c>
+      <c r="F23" s="33"/>
       <c r="G23" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>98</v>
       </c>
       <c r="I23" s="13" t="s">
         <v>18</v>
@@ -1707,20 +1707,20 @@
       <c r="A24" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="16"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" s="21"/>
+        <v>130</v>
+      </c>
+      <c r="D24" s="30"/>
       <c r="E24" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F24" s="24"/>
+        <v>98</v>
+      </c>
+      <c r="F24" s="33"/>
       <c r="G24" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>130</v>
       </c>
       <c r="I24" s="13" t="s">
         <v>15</v>
@@ -1730,20 +1730,20 @@
       <c r="A25" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="16"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="30"/>
+      <c r="E25" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="10" t="s">
+      <c r="F25" s="33"/>
+      <c r="G25" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="12" t="s">
+      <c r="H25" s="12" t="s">
         <v>127</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>128</v>
       </c>
       <c r="I25" s="13" t="s">
         <v>15</v>
@@ -1751,22 +1751,22 @@
     </row>
     <row r="26" spans="1:9" ht="249.75" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="15"/>
+        <v>55</v>
+      </c>
+      <c r="B26" s="24"/>
       <c r="C26" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="30"/>
+      <c r="E26" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="33"/>
+      <c r="G26" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" s="24"/>
-      <c r="G26" s="12" t="s">
+      <c r="H26" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>104</v>
       </c>
       <c r="I26" s="13" t="s">
         <v>15</v>
@@ -1774,24 +1774,24 @@
     </row>
     <row r="27" spans="1:9" ht="351.75" customHeight="1">
       <c r="A27" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="9" t="s">
+      <c r="D27" s="30"/>
+      <c r="E27" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="33"/>
+      <c r="G27" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="24"/>
-      <c r="G27" s="12" t="s">
+      <c r="H27" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>108</v>
       </c>
       <c r="I27" s="13" t="s">
         <v>15</v>
@@ -1799,63 +1799,72 @@
     </row>
     <row r="28" spans="1:9" ht="249.95" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" s="16"/>
+        <v>111</v>
+      </c>
+      <c r="B28" s="25"/>
       <c r="C28" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="31"/>
+      <c r="E28" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="33"/>
+      <c r="G28" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="12" t="s">
         <v>109</v>
-      </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="24"/>
-      <c r="G28" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>110</v>
       </c>
       <c r="I28" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
     </row>
     <row r="30" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
     </row>
     <row r="31" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
     </row>
     <row r="32" spans="1:9" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A29:I31"/>
+    <mergeCell ref="D7:D28"/>
+    <mergeCell ref="F7:F28"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B20"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -1865,15 +1874,6 @@
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A29:I31"/>
-    <mergeCell ref="D7:D28"/>
-    <mergeCell ref="F7:F28"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B20"/>
   </mergeCells>
   <conditionalFormatting sqref="I7:I26">
     <cfRule type="cellIs" dxfId="11" priority="53" operator="equal">
